--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -210,74 +210,6 @@
     <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 

--- a/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
+++ b/InputData/land/AOCoLUPpUA/Annual Ongoing Cost of Land Use Pol per Unit Area.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\land\AOCoLUPpUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NV/land/AOCoLUPpUA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF94B7C1-28EB-4AAB-A6C5-9A13131631C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{52DB8611-5738-0F4E-AE45-8D3132F48298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="760" windowWidth="19200" windowHeight="10100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="AOCoLUPpUA" sheetId="3" r:id="rId2"/>
+    <sheet name="Forest Mgmt Costs" sheetId="4" r:id="rId2"/>
+    <sheet name="AOCoLUPpUA" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="C_to_CO2">'[1]Conversion Factors'!$A$4</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +32,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="61">
   <si>
     <t>AOCoLUPpUA Annual Ongoing Cost of Land Use Policies per Unit Area</t>
   </si>
@@ -50,6 +50,24 @@
     <t>Notes</t>
   </si>
   <si>
+    <t>This variable is for the costs to maintain lands previously affected by one of the</t>
+  </si>
+  <si>
+    <t>avoid emission of sequestered CO2.</t>
+  </si>
+  <si>
+    <t>This variable is NOT for use with the Improved Forest Management policy,</t>
+  </si>
+  <si>
+    <t>as that policy must be repeated every year in order to obtain carbon benefits</t>
+  </si>
+  <si>
+    <t>in that year.  Its cost is handled in the "Implementation Cost of Land Use</t>
+  </si>
+  <si>
+    <t>Policies per Unit Area" variable.</t>
+  </si>
+  <si>
     <t>forest set asides</t>
   </si>
   <si>
@@ -71,26 +89,146 @@
     <t>annual maintenance cost ($ / acre)</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Based on consultation with the organization American Forests, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">annual ongoing for land affected by these policy levers is a </t>
-  </si>
-  <si>
-    <t>small part of lifetime costs. For this reason, we do not attempt</t>
-  </si>
-  <si>
-    <t>to track these in the US model.</t>
+    <t>are not used in the U.S. version of the model.</t>
+  </si>
+  <si>
+    <t>land use policies (such as "Afforestation/Reforestation") and thereby</t>
+  </si>
+  <si>
+    <t>Table 2: Forest by Region (thousand acres)</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Softwood</t>
+  </si>
+  <si>
+    <t>Hardwood</t>
+  </si>
+  <si>
+    <t>Corn Belt</t>
+  </si>
+  <si>
+    <t>Lake States</t>
+  </si>
+  <si>
+    <t>Northeast</t>
+  </si>
+  <si>
+    <t>PNE</t>
+  </si>
+  <si>
+    <t>PNW</t>
+  </si>
+  <si>
+    <t>PSW</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>Table 5: Cost per acre of forest management practices by region</t>
+  </si>
+  <si>
+    <t>Region and Practice</t>
+  </si>
+  <si>
+    <t>Stand Type</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Softwoods</t>
+  </si>
+  <si>
+    <t>Hardwoods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Decadal Management*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Precommercial thin</t>
+  </si>
+  <si>
+    <t>hardwoods value assumed to be zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Fertilizer</t>
+  </si>
+  <si>
+    <t>hardwoods value calculated based on other area fertizlier costs and scaled relative to softwoods compared to other regions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Herbicide</t>
+  </si>
+  <si>
+    <t>Cornbelt</t>
+  </si>
+  <si>
+    <t>values calculated based on other data in this table</t>
+  </si>
+  <si>
+    <t>*Decadal costs are annualized here</t>
+  </si>
+  <si>
+    <t>Calculated Average Forest Management Cost</t>
+  </si>
+  <si>
+    <t>2002$ / acre</t>
+  </si>
+  <si>
+    <t>U.S. Forest Service</t>
+  </si>
+  <si>
+    <t>Regional Cost Information for Private Timberland Conversion and Management</t>
+  </si>
+  <si>
+    <t>http://www.fs.fed.us/pnw/pubs/pnw-gtr684.pdf</t>
+  </si>
+  <si>
+    <t>Table 2 (forest area by region), Table 5 (management costs per acre by region)</t>
+  </si>
+  <si>
+    <t>Currency Year</t>
+  </si>
+  <si>
+    <t>We adjust the sources' dollars to 2012 dollars using the following conversion factors:</t>
+  </si>
+  <si>
+    <t>2002 to 2012, for U.S. Forest Service (2006) "Regional Cost Information…"</t>
+  </si>
+  <si>
+    <t>See "cpi.xlsx" in the InputData folder for source information.</t>
+  </si>
+  <si>
+    <t>2012$ / acre</t>
+  </si>
+  <si>
+    <t>Both new forests (from afforestation/reforestation) and forests set aside from</t>
+  </si>
+  <si>
+    <t>timber harvesting need to be managed.</t>
+  </si>
+  <si>
+    <t>Peatland restoration and forest restoration policies</t>
+  </si>
+  <si>
+    <t>Nevada</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +238,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -129,13 +275,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -183,37 +343,53 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFont="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyProtection="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="8">
     <cellStyle name="Body: normal cell" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Font: Calibri, 9pt regular" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Footnotes: top row" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Parent row" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Table title" xfId="6" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
@@ -232,9 +408,10 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Conversion Factors"/>
       <sheetName val="About"/>
       <sheetName val="CO2 Aff &amp; Ref"/>
       <sheetName val="VFC-PIIiCRfAaREY"/>
@@ -254,10 +431,15 @@
       <sheetName val="VFC-LVpMCAbAD"/>
       <sheetName val="County Data"/>
       <sheetName val="Forest Mgmt Costs"/>
-      <sheetName val="Conversion Factors"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="4">
+          <cell r="A4">
+            <v>3.6666666666666665</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -276,22 +458,16 @@
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
-      <sheetData sheetId="19">
-        <row r="4">
-          <cell r="A4">
-            <v>3.6666666666666665</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="19"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -329,9 +505,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,26 +540,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -416,26 +575,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -609,70 +751,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="10">
+        <v>45296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:2" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="1:1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:1" ht="14.45" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1.278</v>
+      </c>
+      <c r="B27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <f>50+1614</f>
+        <v>1664</v>
+      </c>
+      <c r="C3">
+        <f>377+25502</f>
+        <v>25879</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <f>972+4013</f>
+        <v>4985</v>
+      </c>
+      <c r="C4">
+        <f>2396+22953</f>
+        <v>25349</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5">
+        <f>3955+13315</f>
+        <v>17270</v>
+      </c>
+      <c r="C5">
+        <f>7041+45009</f>
+        <v>52050</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <f>2879+2953</f>
+        <v>5832</v>
+      </c>
+      <c r="C6">
+        <f>119</f>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <f>6236+2826</f>
+        <v>9062</v>
+      </c>
+      <c r="C7">
+        <f>923+1277</f>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <f>2156+2707</f>
+        <v>4863</v>
+      </c>
+      <c r="C8">
+        <f>826+1748</f>
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9">
+        <f>2918+12457</f>
+        <v>15375</v>
+      </c>
+      <c r="C9">
+        <f>8+2680</f>
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10">
+        <f>15095+29814</f>
+        <v>44909</v>
+      </c>
+      <c r="C10">
+        <f>7434+52435</f>
+        <v>59869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11">
+        <f>10315+29977</f>
+        <v>40292</v>
+      </c>
+      <c r="C11">
+        <f>4193+30945</f>
+        <v>35138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <f>39/10</f>
+        <v>3.9</v>
+      </c>
+      <c r="C16">
+        <f>35.46/10</f>
+        <v>3.5460000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>95.55</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>44.67</v>
+      </c>
+      <c r="C18" s="7">
+        <f>C23*(B18/B23)</f>
+        <v>13.041950354609931</v>
+      </c>
+      <c r="D18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19">
+        <v>58.48</v>
+      </c>
+      <c r="C19">
+        <v>58.48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21">
+        <f>21.5/10</f>
+        <v>2.15</v>
+      </c>
+      <c r="C21">
+        <f>16.71/10</f>
+        <v>1.671</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>65.11</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>50.76</v>
+      </c>
+      <c r="C23">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24">
+        <v>58.48</v>
+      </c>
+      <c r="C24">
+        <v>58.48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26">
+        <f>21.61/10</f>
+        <v>2.161</v>
+      </c>
+      <c r="C26">
+        <f>16.8/10</f>
+        <v>1.6800000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>65.11</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28">
+        <v>50.76</v>
+      </c>
+      <c r="C28">
+        <v>14.82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29">
+        <v>58.48</v>
+      </c>
+      <c r="C29">
+        <v>58.48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <f>24.49/10</f>
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="C31">
+        <f>37.7/10</f>
+        <v>3.7700000000000005</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="7">
+        <f>AVERAGE(B27,B22,B17)</f>
+        <v>75.256666666666661</v>
+      </c>
+      <c r="C32" s="6">
+        <f>AVERAGE(C27,C22,C17)</f>
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B33" s="6">
+        <f t="shared" ref="B33:C34" si="0">AVERAGE(B28,B23,B18)</f>
+        <v>48.73</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="0"/>
+        <v>14.227316784869977</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="6">
+        <f t="shared" si="0"/>
+        <v>58.48</v>
+      </c>
+      <c r="C34" s="6">
+        <f t="shared" si="0"/>
+        <v>58.48</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
+        <f>(SUM(B16:B19)*B7+SUM(C16:C19)*C7+SUM(B21:B24)*B11+SUM(C21:C24)*C11+SUM(B26:B29)*B10+SUM(C26:C29)*C10+SUM(B31:B34)*B3+SUM(C31:C34)*C3)/SUM(B3:C3,B7:C7,B10:C11)</f>
+        <v>120.76792682712498</v>
+      </c>
+      <c r="B39" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <f>A39*About!A27</f>
+        <v>154.34141048506572</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:D15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -680,64 +1344,67 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
+        <f>'Forest Mgmt Costs'!A40</f>
+        <v>154.34141048506572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3">
+        <f>'Forest Mgmt Costs'!A40</f>
+        <v>154.34141048506572</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <f>'Forest Mgmt Costs'!A40</f>
+        <v>154.34141048506572</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3">
         <v>0</v>
       </c>
     </row>
